--- a/data/summary_22071511.xlsx
+++ b/data/summary_22071511.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,40 +360,45 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Ponto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Tair_m</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Presurre_m</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Taxa_Linear</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Taxa_quad</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FCO2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FO2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ts</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ms</t>
         </is>
@@ -401,339 +406,378 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>33.89668508287293</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>984.3066298342541</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.3028223140495868</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.2811099173553719</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.869351302125931</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.0001098212675967451</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>31.94309392265193</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4.535359116022099</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>35.87624309392265</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>984.2607734806629</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.3060735537190082</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.2974041322314049</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.857284279967439</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.0001433316231138733</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>31.7</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3.732596685082873</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>35.66408839779005</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>984.2895027624309</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.2942421487603306</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.268503305785124</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.927452696074903</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>5.984994777985789e-005</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>31.69337016574585</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2.703867403314917</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>35.02486187845304</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>984.2171270718233</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.2449214876033058</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.2306462809917355</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.586433713591918</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2.271656384316195e-017</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>31.26408839779005</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3.211602209944751</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>35.31988950276243</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>984.1165745856354</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.2124438016528926</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.1950148760330578</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.446949077253178</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.134625770899818e-017</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>31.21767955801105</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>6.864088397790056</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>35.19171270718233</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>983.9988950276243</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.2675462809917356</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.2722190082644628</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.654146018533139</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1.1349617668459e-017</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>31.1</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>5.891712707182321</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>37.24309392265194</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>983.953591160221</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-0.02924132231404959</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.04906694214876033</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.6161748238269112</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>8.985966261359035e-005</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>31.47127071823204</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1.843093922651934</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>39.10441988950277</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>983.9</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.2944785123966942</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.2691719008264463</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.905452033954733</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.0003673722577743737</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>31.93204419889503</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2.49171270718232</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>38.40220994475138</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>983.9116022099447</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.3325735537190083</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.3251611570247934</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2.114389693089223</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>6.99079011141754e-005</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>32.25248618784531</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3.233701657458564</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>38.43038674033149</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>983.7988950276243</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.2934132231404959</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.2681727272727273</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.909379803602608</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-1.26330141739215e-017</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>32.85911602209945</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.803314917127072</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>39.78121546961326</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>983.7580110497238</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.2857561983471074</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.2477561983471074</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.833159825691169</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.0001005653453689265</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>33.1</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5.369060773480664</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>38.53204419889503</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>983.6486187845304</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.2851702479338843</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.2609198347107438</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1.840305709875019</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-7.962350846099329e-005</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>32.9585635359116</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.922099447513812</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>37.2878453038674</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>983.6099447513813</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.3544826446280992</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.329100826446281</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2.258192887040519</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2.253703191467954e-017</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>32.7</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>2.011049723756906</v>
       </c>
     </row>
